--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493059.6377321678</v>
+        <v>519001.6339931616</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7902514.955802058</v>
+        <v>7940393.746412826</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.484581935008</v>
+        <v>225.6497506869247</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>21.39555907027768</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>37.77873832572996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255877</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>131.6793655011336</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>63.4965279079004</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>247.8853163645411</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>137.232472254398</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>70.23027665595168</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>379.2924195143584</v>
+        <v>161.4258646586661</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.7535668023728</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>10.04027365719943</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.08339867820153</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>105.2666242787486</v>
       </c>
       <c r="C16" t="n">
-        <v>126.5517316786946</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8577999327473</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>71.84692347866419</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170487</v>
+        <v>50.05924486566816</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>155.9902440393935</v>
       </c>
       <c r="G20" t="n">
-        <v>129.7853418074785</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2245,16 +2245,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>144.410121140259</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>102.697445974036</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2536,13 +2536,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>155.1461723647474</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>120.1838601509837</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>120.1472970361155</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>30.8054975737752</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>54.53682144529132</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3205,7 +3205,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>69.45405731752537</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>56.63677140718774</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800578</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>61.08641542222801</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776708</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.5504749248107</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513587</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>101.1195220207942</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,13 +4195,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>107.3792913045959</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1785.218505997676</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1347.076033181099</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>911.1662483555438</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>2454.549176960772</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>2439.447117580487</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>2211.518076482584</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021819</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858462</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005015</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331969</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481302</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143141</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305265</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>818.1881391909841</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>1142.746464157196</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>1142.746464157196</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1142.746464157196</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>1142.746464157196</v>
       </c>
       <c r="N3" t="n">
-        <v>778.554892512724</v>
+        <v>1142.746464157196</v>
       </c>
       <c r="O3" t="n">
-        <v>778.554892512724</v>
+        <v>1189.749864474359</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.45251078292</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414996</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957718</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.73014628832</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288288</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350288</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083482</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322362</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101582</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.55534443017166</v>
+        <v>772.1723883961072</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>599.6106768793321</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>433.7326840808548</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>263.9746803315921</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>87.26762629334829</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214707</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1750.392590344264</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="W4" t="n">
-        <v>720.185388501638</v>
+        <v>1191.410677800986</v>
       </c>
       <c r="X4" t="n">
-        <v>474.7936338350505</v>
+        <v>1191.410677800986</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.3739631491588</v>
+        <v>963.9910071150944</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1813.374751416896</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.5796651493484</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1452.386333106109</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1173.953332359214</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>886.9978242296445</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>614.971419815936</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>369.5796651493484</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.5796651493484</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892348</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075771</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>1326.16292329062</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>892.3881784489151</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>464.5207488581229</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152966</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105271</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105271</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105271</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105271</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105271</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.78172237708</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996794</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336852</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>755.7901049688819</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>755.7901049688819</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
-        <v>589.9121121704046</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>589.9121121704046</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>413.2050581321608</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>247.6137831579885</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>107.711608848363</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296484</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>311.5303900296484</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>766.5830913287448</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1208.841894486389</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090968</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925642</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178747</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049178</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.181859635469</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>755.7901049688819</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>755.7901049688819</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.724095295529</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2034.581622478952</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.671837653396</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5039,25 +5039,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>3163.194070102703</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>4288.925053539151</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.644769302702</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901472</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3307.309789480783</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.023665780436</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J12" t="n">
-        <v>421.2943016473275</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K12" t="n">
-        <v>421.2943016473275</v>
+        <v>777.4694967514926</v>
       </c>
       <c r="L12" t="n">
-        <v>421.2943016473275</v>
+        <v>777.4694967514926</v>
       </c>
       <c r="M12" t="n">
-        <v>421.2943016473275</v>
+        <v>777.4694967514926</v>
       </c>
       <c r="N12" t="n">
-        <v>421.2943016473275</v>
+        <v>777.4694967514926</v>
       </c>
       <c r="O12" t="n">
-        <v>421.2943016473275</v>
+        <v>777.4694967514926</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1597.192663230691</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="R12" t="n">
         <v>1759.975738159924</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>784.8119928040993</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>784.8119928040993</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>618.934000005622</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>449.1759962563592</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>272.4689422181154</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>106.8776672439431</v>
       </c>
       <c r="H13" t="n">
         <v>96.73597668111518</v>
@@ -5224,25 +5224,25 @@
         <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.977765289287</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.098318867742</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.665318120847</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.709809991278</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.683405577569</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.291650910982</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.87198022509</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689265</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047133</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205428</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146356</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>329.6263178325391</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940404</v>
+        <v>1404.686284085398</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940404</v>
+        <v>2561.734119295949</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>3687.465102732396</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>122.7996498415728</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>122.7996498415728</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>122.7996498415728</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>562.8680267311241</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
-        <v>1759.975738159924</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1759.975738159924</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
         <v>1759.975738159924</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.4711828007308</v>
+        <v>870.3006880091988</v>
       </c>
       <c r="C16" t="n">
-        <v>837.6411508020492</v>
+        <v>697.7389764924237</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7631580035719</v>
+        <v>531.8609836939463</v>
       </c>
       <c r="E16" t="n">
-        <v>502.0051542543091</v>
+        <v>362.1029799446836</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285906</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.70947220561</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.289801519718</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.87917085155</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2073.736698034973</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1637.826913209418</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>776.1847387769208</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>374.7869074001846</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>498.7803825855955</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>1573.840348838455</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2730.888184049006</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>3856.619167485453</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4764.22618407731</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="U17" t="n">
-        <v>4533.079733112634</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3765.607328457494</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3346.464865036804</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="Q18" t="n">
         <v>1642.802960065584</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987275</v>
+        <v>806.2298140987269</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819524</v>
+        <v>633.6681025819519</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834751</v>
+        <v>633.6681025819519</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342124</v>
+        <v>463.9100988326896</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959686</v>
+        <v>287.2030447944459</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H19" t="n">
         <v>96.73597668111518</v>
@@ -5701,22 +5701,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V19" t="n">
         <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X19" t="n">
         <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177147</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351991</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526435</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847301</v>
+        <v>944.8298656847295</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939379</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
@@ -5750,28 +5750,28 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>498.7803825855955</v>
       </c>
       <c r="L20" t="n">
-        <v>1366.340956092211</v>
+        <v>1573.840348838455</v>
       </c>
       <c r="M20" t="n">
-        <v>1366.340956092211</v>
+        <v>2730.888184049006</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>3856.619167485453</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5789,13 +5789,13 @@
         <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1128.091494878162</v>
       </c>
       <c r="Q21" t="n">
         <v>1642.802960065584</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987274</v>
+        <v>917.3761843184092</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819521</v>
+        <v>744.8144728016341</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7901097834748</v>
+        <v>578.9364800031569</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342121</v>
+        <v>578.9364800031569</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959683</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2140.988140933154</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1854.032632803584</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1582.006228389876</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1336.614473723288</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177145</v>
+        <v>1109.194803037396</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6069,22 +6069,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2455.944287558408</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2177.511286811513</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.555778681944</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1591.69782075463</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937636</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769885</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>617.7751448769885</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127508</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060352</v>
+        <v>982.1554751127512</v>
       </c>
       <c r="C31" t="n">
-        <v>863.1668995435767</v>
+        <v>809.5937635959762</v>
       </c>
       <c r="D31" t="n">
-        <v>697.2889067450994</v>
+        <v>643.7157707974989</v>
       </c>
       <c r="E31" t="n">
-        <v>527.5309029958366</v>
+        <v>473.9577670482361</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>297.2507130099923</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,16 +6622,16 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
         <v>2203.220781338905</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779339</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="32">
@@ -6774,31 +6774,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2648.764836721533</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2402.885390299989</v>
       </c>
       <c r="U34" t="n">
-        <v>2235.172953748142</v>
+        <v>2124.452389553094</v>
       </c>
       <c r="V34" t="n">
-        <v>1948.217445618573</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W34" t="n">
-        <v>1676.191041204864</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.799286538277</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.379615852385</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7011,31 +7011,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D40" t="n">
         <v>614.3171730324584</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7412,49 +7412,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>875.5388337745583</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C43" t="n">
-        <v>702.9771222577832</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D43" t="n">
-        <v>702.9771222577832</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2191185085204</v>
+        <v>303.5569696238768</v>
       </c>
       <c r="F43" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798643</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127509</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7646,52 +7646,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2616.779518839444</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2370.900072417899</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008509</v>
+        <v>2092.467071671004</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878939</v>
+        <v>1805.511563541435</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.529374268236</v>
+        <v>1533.485159127726</v>
       </c>
       <c r="X46" t="n">
-        <v>1373.137619601649</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,13 +8052,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.817972813506</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706684</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,22 +8608,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>115.2072824288675</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>382.545167437931</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>235.2427688398221</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9003,19 +9003,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>444.5135120096479</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.199708513939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>406.1054605095761</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>406.1054605095761</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9644,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,10 +10127,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.1445778789294</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.146865729424462</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>128.4628789093298</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73195639979983</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>84.63380825304864</v>
       </c>
       <c r="C16" t="n">
-        <v>44.28436272291272</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>11.3810530784686</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>10.96843159933717</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>113.8761173587624</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>267.5985112554908</v>
       </c>
       <c r="G20" t="n">
-        <v>267.5985112554902</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>131.2385495991667</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>140.7232059832932</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>114.159968004824</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>69.71657238081349</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.91312667565458</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>144.1344859240861</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>109.3985407791393</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>88.19489769745793</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>219.011899332238</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.34995760698656</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>56.52943299418914</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666765.980443337</v>
+        <v>678429.0986253617</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666765.980443337</v>
+        <v>681731.7829125378</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668941.3461815779</v>
+        <v>681731.7829125378</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671358.7922335968</v>
+        <v>671358.7922335971</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671358.7922335971</v>
+        <v>671358.792233597</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671358.7922335971</v>
+        <v>671358.792233597</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699690.9004396492</v>
+        <v>699690.9004396491</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699690.9004396494</v>
+        <v>699690.9004396492</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699690.9004396494</v>
+        <v>699690.9004396492</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>699690.9004396492</v>
+        <v>699690.9004396494</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
@@ -26323,7 +26323,7 @@
         <v>290676.2413337139</v>
       </c>
       <c r="F2" t="n">
-        <v>290676.2413337138</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="G2" t="n">
         <v>290676.2413337139</v>
@@ -26335,10 +26335,10 @@
         <v>302943.1108789775</v>
       </c>
       <c r="J2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="K2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="L2" t="n">
         <v>302943.1108789775</v>
@@ -26347,13 +26347,13 @@
         <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
         <v>302943.1108789776</v>
       </c>
       <c r="P2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.293752027</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>174244.3817256396</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>200045.3005001106</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
         <v>78141.89423804609</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804609</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="G4" t="n">
         <v>78141.89423804609</v>
@@ -26436,7 +26436,7 @@
         <v>78141.89423804609</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,16 +26445,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="M4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81439.57146904283</v>
+      </c>
+      <c r="O4" t="n">
         <v>81439.57146904284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81439.57146904287</v>
-      </c>
-      <c r="N4" t="n">
-        <v>81439.57146904284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81439.57146904281</v>
       </c>
       <c r="P4" t="n">
         <v>81439.57146904283</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26491,7 +26491,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99292.3527018142</v>
+        <v>-142621.0655506994</v>
       </c>
       <c r="C6" t="n">
-        <v>42898.9479578957</v>
+        <v>51468.55174176196</v>
       </c>
       <c r="D6" t="n">
-        <v>35683.3308164014</v>
+        <v>68809.09611566861</v>
       </c>
       <c r="E6" t="n">
-        <v>-84784.2889340067</v>
+        <v>-22796.62894689096</v>
       </c>
       <c r="F6" t="n">
-        <v>139015.0048180202</v>
+        <v>138938.4462632234</v>
       </c>
       <c r="G6" t="n">
-        <v>139015.0048180203</v>
+        <v>138938.4462632235</v>
       </c>
       <c r="H6" t="n">
-        <v>139015.0048180203</v>
+        <v>138938.4462632234</v>
       </c>
       <c r="I6" t="n">
-        <v>125420.5851713025</v>
+        <v>125397.36083192</v>
       </c>
       <c r="J6" t="n">
-        <v>32770.83545915212</v>
+        <v>-16845.75302085365</v>
       </c>
       <c r="K6" t="n">
-        <v>143785.3008041422</v>
+        <v>129948.0678969143</v>
       </c>
       <c r="L6" t="n">
-        <v>134837.6897156319</v>
+        <v>143762.0764647595</v>
       </c>
       <c r="M6" t="n">
-        <v>-43005.68580632526</v>
+        <v>8772.131851756038</v>
       </c>
       <c r="N6" t="n">
-        <v>143785.3008041422</v>
+        <v>143762.0764647595</v>
       </c>
       <c r="O6" t="n">
-        <v>143785.3008041423</v>
+        <v>143762.0764647596</v>
       </c>
       <c r="P6" t="n">
-        <v>143785.3008041422</v>
+        <v>143762.0764647596</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825291</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.71868052833509</v>
+        <v>178.5535117764184</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>149.4405353313296</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>126.1566238987006</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>124.9507141550197</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>179.9241240494289</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>260.1513808085707</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.54307307711973</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.817972813506</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706684</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>115.2072824288675</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>382.545167437931</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>235.2427688398221</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>444.5135120096479</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.199708513939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>406.1054605095761</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>406.1054605095761</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>955.8742281294894</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,10 +36847,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,25 +37780,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
